--- a/config_12.15/fish3d_use_config.xlsx
+++ b/config_12.15/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -223,6 +229,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,10 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2245,6 +2261,99 @@
       </c>
       <c r="C121" s="9"/>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="10">
+        <v>121</v>
+      </c>
+      <c r="B122" s="11">
+        <v>13</v>
+      </c>
+      <c r="C122" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="10">
+        <v>122</v>
+      </c>
+      <c r="B123" s="11">
+        <v>14</v>
+      </c>
+      <c r="C123" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="10">
+        <v>123</v>
+      </c>
+      <c r="B124" s="11">
+        <v>15</v>
+      </c>
+      <c r="C124" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="10">
+        <v>124</v>
+      </c>
+      <c r="B125" s="11">
+        <v>16</v>
+      </c>
+      <c r="C125" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="10">
+        <v>125</v>
+      </c>
+      <c r="B126" s="11">
+        <v>17</v>
+      </c>
+      <c r="C126" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="10">
+        <v>126</v>
+      </c>
+      <c r="B127" s="11">
+        <v>18</v>
+      </c>
+      <c r="C127" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="10">
+        <v>127</v>
+      </c>
+      <c r="B128" s="10">
+        <v>61</v>
+      </c>
+      <c r="C128" s="12"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="10">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10">
+        <v>61</v>
+      </c>
+      <c r="C129" s="12"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="10">
+        <v>129</v>
+      </c>
+      <c r="B130" s="10">
+        <v>61</v>
+      </c>
+      <c r="C130" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.15/fish3d_use_config.xlsx
+++ b/config_12.15/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,19 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -213,31 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,6 +745,271 @@
         <row r="101">
           <cell r="B101">
             <v>17</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>61</v>
           </cell>
         </row>
       </sheetData>
@@ -1054,18 +1289,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1803,7 +2038,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1815,7 +2050,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1827,7 +2062,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1839,7 +2074,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1878,7 +2113,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1890,7 +2125,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1902,7 +2137,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1914,7 +2149,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1962,7 +2197,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1977,7 +2212,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1992,7 +2227,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -2007,7 +2242,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2022,7 +2257,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2037,7 +2272,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2052,7 +2287,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2060,299 +2295,566 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="3">
+        <f>[1]use_fish!$B102</f>
         <v>13</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="3">
+        <f>[1]use_fish!$B103</f>
         <v>14</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="3">
+        <f>[1]use_fish!$B104</f>
         <v>15</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="3">
+        <f>[1]use_fish!$B105</f>
         <v>16</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="3">
+        <f>[1]use_fish!$B106</f>
         <v>17</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="3">
+        <f>[1]use_fish!$B107</f>
         <v>18</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="3">
+        <f>[1]use_fish!$B108</f>
         <v>58</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="3">
+        <f>[1]use_fish!$B109</f>
         <v>58</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="3">
+        <f>[1]use_fish!$B110</f>
         <v>58</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="3">
+        <f>[1]use_fish!$B111</f>
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="3">
+        <f>[1]use_fish!$B112</f>
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="3">
+        <f>[1]use_fish!$B113</f>
         <v>13</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="3">
+        <f>[1]use_fish!$B114</f>
         <v>14</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="3">
+        <f>[1]use_fish!$B115</f>
         <v>15</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="3">
+        <f>[1]use_fish!$B116</f>
         <v>16</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="3">
+        <f>[1]use_fish!$B117</f>
         <v>17</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="3">
+        <f>[1]use_fish!$B118</f>
         <v>18</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="3">
+        <f>[1]use_fish!$B119</f>
         <v>60</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="3">
+        <f>[1]use_fish!$B120</f>
         <v>60</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="3">
+        <f>[1]use_fish!$B121</f>
         <v>60</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="6"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="10">
+      <c r="A122" s="3">
         <v>121</v>
       </c>
-      <c r="B122" s="11">
+      <c r="B122" s="3">
+        <f>[1]use_fish!$B122</f>
+        <v>20</v>
+      </c>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <f>[1]use_fish!$B123</f>
+        <v>22</v>
+      </c>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <f>[1]use_fish!$B124</f>
+        <v>23</v>
+      </c>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <f>[1]use_fish!$B125</f>
+        <v>25</v>
+      </c>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <f>[1]use_fish!$B126</f>
+        <v>26</v>
+      </c>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <f>[1]use_fish!$B127</f>
+        <v>27</v>
+      </c>
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <f>[1]use_fish!$B128</f>
+        <v>20</v>
+      </c>
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <f>[1]use_fish!$B129</f>
+        <v>22</v>
+      </c>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <f>[1]use_fish!$B130</f>
+        <v>23</v>
+      </c>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <f>[1]use_fish!$B131</f>
+        <v>25</v>
+      </c>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <f>[1]use_fish!$B132</f>
+        <v>26</v>
+      </c>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <f>[1]use_fish!$B133</f>
+        <v>27</v>
+      </c>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <f>[1]use_fish!$B134</f>
+        <v>20</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <f>[1]use_fish!$B135</f>
+        <v>22</v>
+      </c>
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <f>[1]use_fish!$B136</f>
+        <v>23</v>
+      </c>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <f>[1]use_fish!$B137</f>
+        <v>25</v>
+      </c>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <f>[1]use_fish!$B138</f>
+        <v>26</v>
+      </c>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <f>[1]use_fish!$B139</f>
+        <v>27</v>
+      </c>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <f>[1]use_fish!$B140</f>
+        <v>20</v>
+      </c>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <f>[1]use_fish!$B141</f>
+        <v>22</v>
+      </c>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <f>[1]use_fish!$B142</f>
+        <v>23</v>
+      </c>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <f>[1]use_fish!$B143</f>
+        <v>25</v>
+      </c>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <f>[1]use_fish!$B144</f>
+        <v>26</v>
+      </c>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <f>[1]use_fish!$B145</f>
+        <v>27</v>
+      </c>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
-      <c r="C122" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="10">
-        <v>122</v>
-      </c>
-      <c r="B123" s="11">
+      <c r="C146" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
-      <c r="C123" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="10">
-        <v>123</v>
-      </c>
-      <c r="B124" s="11">
+      <c r="C147" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
-      <c r="C124" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="10">
-        <v>124</v>
-      </c>
-      <c r="B125" s="11">
+      <c r="C148" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
-      <c r="C125" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="10">
-        <v>125</v>
-      </c>
-      <c r="B126" s="11">
+      <c r="C149" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
-      <c r="C126" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="10">
-        <v>126</v>
-      </c>
-      <c r="B127" s="11">
+      <c r="C150" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C127" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="10">
-        <v>127</v>
-      </c>
-      <c r="B128" s="10">
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
-      <c r="C128" s="12"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="10">
-        <v>128</v>
-      </c>
-      <c r="B129" s="10">
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
-      <c r="C129" s="12"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="B130" s="10">
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
-      <c r="C130" s="12"/>
+      <c r="C154" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_12.15/fish3d_use_config.xlsx
+++ b/config_12.15/fish3d_use_config.xlsx
@@ -1292,8 +1292,8 @@
   <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J146" sqref="J146"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
